--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Jag1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Jag1-Notch1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.66920033333333</v>
+        <v>7.132470666666666</v>
       </c>
       <c r="H2">
-        <v>47.00760099999999</v>
+        <v>21.397412</v>
       </c>
       <c r="I2">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="J2">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N2">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q2">
-        <v>876.0376008744839</v>
+        <v>274.9758354464844</v>
       </c>
       <c r="R2">
-        <v>7884.338407870356</v>
+        <v>2474.78251901836</v>
       </c>
       <c r="S2">
-        <v>0.1876240211279898</v>
+        <v>0.06208037576454386</v>
       </c>
       <c r="T2">
-        <v>0.1876240211279898</v>
+        <v>0.06208037576454386</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.66920033333333</v>
+        <v>7.132470666666666</v>
       </c>
       <c r="H3">
-        <v>47.00760099999999</v>
+        <v>21.397412</v>
       </c>
       <c r="I3">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="J3">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>16.112028</v>
       </c>
       <c r="O3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q3">
-        <v>84.15419816942531</v>
+        <v>38.30618903017067</v>
       </c>
       <c r="R3">
-        <v>757.3877835248278</v>
+        <v>344.7557012715361</v>
       </c>
       <c r="S3">
-        <v>0.0180235974341603</v>
+        <v>0.008648260328909736</v>
       </c>
       <c r="T3">
-        <v>0.0180235974341603</v>
+        <v>0.008648260328909738</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.66920033333333</v>
+        <v>7.132470666666666</v>
       </c>
       <c r="H4">
-        <v>47.00760099999999</v>
+        <v>21.397412</v>
       </c>
       <c r="I4">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="J4">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N4">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q4">
-        <v>405.9611469138079</v>
+        <v>164.2598127948911</v>
       </c>
       <c r="R4">
-        <v>3653.65032222427</v>
+        <v>1478.33831515402</v>
       </c>
       <c r="S4">
-        <v>0.0869461113651586</v>
+        <v>0.03708438919646472</v>
       </c>
       <c r="T4">
-        <v>0.0869461113651586</v>
+        <v>0.03708438919646473</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>49.43030900000001</v>
       </c>
       <c r="I5">
-        <v>0.3076736139282969</v>
+        <v>0.2490596131114117</v>
       </c>
       <c r="J5">
-        <v>0.3076736139282968</v>
+        <v>0.2490596131114118</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N5">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O5">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P5">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q5">
-        <v>921.1873906699562</v>
+        <v>635.2235734701411</v>
       </c>
       <c r="R5">
-        <v>8290.686516029606</v>
+        <v>5717.012161231271</v>
       </c>
       <c r="S5">
-        <v>0.197293908705936</v>
+        <v>0.1434123041084368</v>
       </c>
       <c r="T5">
-        <v>0.197293908705936</v>
+        <v>0.1434123041084368</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>49.43030900000001</v>
       </c>
       <c r="I6">
-        <v>0.3076736139282969</v>
+        <v>0.2490596131114117</v>
       </c>
       <c r="J6">
-        <v>0.3076736139282968</v>
+        <v>0.2490596131114118</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>16.112028</v>
       </c>
       <c r="O6">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P6">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q6">
-        <v>88.49139140629467</v>
+        <v>88.4913914062947</v>
       </c>
       <c r="R6">
-        <v>796.4225226566521</v>
+        <v>796.4225226566523</v>
       </c>
       <c r="S6">
-        <v>0.01895250920084501</v>
+        <v>0.01997840581704226</v>
       </c>
       <c r="T6">
-        <v>0.01895250920084501</v>
+        <v>0.01997840581704227</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>49.43030900000001</v>
       </c>
       <c r="I7">
-        <v>0.3076736139282969</v>
+        <v>0.2490596131114117</v>
       </c>
       <c r="J7">
-        <v>0.3076736139282968</v>
+        <v>0.2490596131114118</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N7">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O7">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P7">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q7">
-        <v>426.8838338281489</v>
+        <v>379.4577261368628</v>
       </c>
       <c r="R7">
-        <v>3841.95450445334</v>
+        <v>3415.119535231765</v>
       </c>
       <c r="S7">
-        <v>0.09142719602151583</v>
+        <v>0.08566890318593263</v>
       </c>
       <c r="T7">
-        <v>0.09142719602151582</v>
+        <v>0.08566890318593266</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.406785</v>
+        <v>42.546687</v>
       </c>
       <c r="H8">
-        <v>64.220355</v>
+        <v>127.640061</v>
       </c>
       <c r="I8">
-        <v>0.3997326561443945</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="J8">
-        <v>0.3997326561443944</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N8">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O8">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P8">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q8">
-        <v>1196.81593028982</v>
+        <v>1640.28866714887</v>
       </c>
       <c r="R8">
-        <v>10771.34337260838</v>
+        <v>14762.59800433983</v>
       </c>
       <c r="S8">
-        <v>0.2563262320782336</v>
+        <v>0.3703224927149741</v>
       </c>
       <c r="T8">
-        <v>0.2563262320782336</v>
+        <v>0.3703224927149741</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.406785</v>
+        <v>42.546687</v>
       </c>
       <c r="H9">
-        <v>64.220355</v>
+        <v>127.640061</v>
       </c>
       <c r="I9">
-        <v>0.3997326561443945</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="J9">
-        <v>0.3997326561443944</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>16.112028</v>
       </c>
       <c r="O9">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P9">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q9">
-        <v>114.96890643666</v>
+        <v>228.504470750412</v>
       </c>
       <c r="R9">
-        <v>1034.72015792994</v>
+        <v>2056.540236753708</v>
       </c>
       <c r="S9">
-        <v>0.02462329072268257</v>
+        <v>0.05158869100272121</v>
       </c>
       <c r="T9">
-        <v>0.02462329072268257</v>
+        <v>0.05158869100272122</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.406785</v>
+        <v>42.546687</v>
       </c>
       <c r="H10">
-        <v>64.220355</v>
+        <v>127.640061</v>
       </c>
       <c r="I10">
-        <v>0.3997326561443945</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="J10">
-        <v>0.3997326561443944</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N10">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O10">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P10">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q10">
-        <v>554.611773764245</v>
+        <v>979.844315984965</v>
       </c>
       <c r="R10">
-        <v>4991.505963878205</v>
+        <v>8818.598843864684</v>
       </c>
       <c r="S10">
-        <v>0.1187831333434783</v>
+        <v>0.2212161778809745</v>
       </c>
       <c r="T10">
-        <v>0.1187831333434782</v>
+        <v>0.2212161778809745</v>
       </c>
     </row>
   </sheetData>
